--- a/ExcelExamples/NonFinancial.xlsx
+++ b/ExcelExamples/NonFinancial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\QuantSA\ExcelExamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90C599-0234-4887-8ACD-D7D64E951AFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F0E4BA-BBFD-4289-9D51-05B01E42710A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="19470" xr2:uid="{A26943FB-61B9-4AF0-ACB4-E103B232AC6C}"/>
   </bookViews>
@@ -31,7 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>=QSA.ShowAbout()</t>
+  </si>
+  <si>
+    <t>=QSA.OpenExampleSheetsDir()</t>
+  </si>
+  <si>
+    <t>=QSA.LatestError()</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,34 +392,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C205EC-D74D-4731-AE06-099E55F6AFB5}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
-        <f ca="1">QSA.ShowAbout()</f>
-        <v>#NAME?</v>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="e">
-        <f ca="1">QSA.OpenExampleSheetsDir()</f>
-        <v>#NAME?</v>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
-        <f ca="1">QSA.LatestError()</f>
-        <v>#NAME?</v>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
         <f>_xll.QSA.GetInstallPath()</f>
         <v>C:\Dev\QuantSA\QuantSA\QuantSA.Excel.AddIn\bin\Debug</v>
       </c>
